--- a/RV-results (version 1)(Automaticky obnovené).xlsx
+++ b/RV-results (version 1)(Automaticky obnovené).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarinov-notas\dev\cgp-optimization-experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E00E5F3C-BB08-4E7F-913F-9568D7677EA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1E356424-6AE6-4A16-A9DC-9648A6EA11C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6750" activeTab="2" xr2:uid="{EDB30DD8-1982-4DCD-87F2-B5E5C07C38C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10485" windowHeight="6750" activeTab="2" xr2:uid="{EDB30DD8-1982-4DCD-87F2-B5E5C07C38C6}"/>
   </bookViews>
   <sheets>
     <sheet name="5000 evaluations" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="100 000 evaluations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
   <si>
     <t>Nguyen 4</t>
   </si>
@@ -157,13 +156,25 @@
   </si>
   <si>
     <t>pTree programming</t>
+  </si>
+  <si>
+    <t>PSO, def. par., max_back=20</t>
+  </si>
+  <si>
+    <t>PSO, def. par., max_back=20,constant</t>
+  </si>
+  <si>
+    <t>PSO, def. par., max_back=10, 25 nodes</t>
+  </si>
+  <si>
+    <t>PSO, def. par., max_back=10,constant, 25 nodes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +224,15 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +243,11 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -255,13 +278,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -289,11 +313,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="40 % - zvýraznenie3" xfId="3" builtinId="39"/>
     <cellStyle name="Nadpis 1" xfId="1" builtinId="16"/>
     <cellStyle name="Nadpis 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Neutrálna" xfId="4" builtinId="28"/>
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1758,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A37983-A6BF-472E-950A-1D4119DD1555}">
-  <dimension ref="A2:AT22"/>
+  <dimension ref="A2:AT25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="AB2" sqref="AB1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1951,6 +1977,78 @@
       <c r="A6" t="s">
         <v>40</v>
       </c>
+      <c r="C6" s="15">
+        <v>2.0511153907724001E-33</v>
+      </c>
+      <c r="D6" s="16">
+        <v>9.6472433861406106E-3</v>
+      </c>
+      <c r="E6" s="16">
+        <v>4.9597680551726397E-3</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1.4533798051469599E-4</v>
+      </c>
+      <c r="H6" s="15">
+        <v>8.9221358735232094E-6</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1.32134706124057E-3</v>
+      </c>
+      <c r="J6" s="16">
+        <v>4.0277629911667997E-4</v>
+      </c>
+      <c r="K6" s="15">
+        <v>6.0009688327771699E-6</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <v>2.11676166827462</v>
+      </c>
+      <c r="O6" s="16">
+        <v>1.0814073925942999E-3</v>
+      </c>
+      <c r="P6" s="16">
+        <v>417.69499295088502</v>
+      </c>
+      <c r="W6" s="16">
+        <v>3.16448970748944E-4</v>
+      </c>
+      <c r="X6" s="16">
+        <v>8.0399991891718606E-2</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>6.6667074879957794E-2</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>4.056783659039E-3</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>2.8828840721937501E-6</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>2.5408093647570499E-3</v>
+      </c>
+      <c r="AD6" s="16">
+        <v>7.3674468889429199E-4</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>2.8589173691138898E-5</v>
+      </c>
+      <c r="AG6" s="16">
+        <v>7.5516298491098898E-3</v>
+      </c>
+      <c r="AH6" s="16">
+        <v>2.6620757748613201E-2</v>
+      </c>
+      <c r="AI6" s="16">
+        <v>2.6921176319823499E-2</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>5.4825851060376203E-5</v>
+      </c>
     </row>
     <row r="7" spans="1:46">
       <c r="A7" t="s">
@@ -2142,7 +2240,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C22" s="15">
         <v>3.4543807352239199E-6</v>
@@ -2228,6 +2326,65 @@
       <c r="AJ22" s="15">
         <v>2.0947488559178202E-5</v>
       </c>
+    </row>
+    <row r="23" spans="1:36">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="15">
+        <v>4.8065668409010603E-5</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.120896579142542</v>
+      </c>
+      <c r="E23" s="16">
+        <v>2.82450421770059E-3</v>
+      </c>
+      <c r="F23" s="16">
+        <v>8.6626505515085495E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="15">
+        <v>6.9775815117979305E-7</v>
+      </c>
+      <c r="D24" s="16">
+        <v>8.8037355793608704E-2</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1.1797483409456201E-4</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.12085522367717701</v>
+      </c>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="15">
+        <v>3.3611745112289499E-7</v>
+      </c>
+      <c r="D25" s="16">
+        <v>6.5113072346954098E-4</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1.8718150747961201E-4</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1.24624904596782E-6</v>
+      </c>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
